--- a/機能一覧表.xlsx
+++ b/機能一覧表.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="12915" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="機能一覧表" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧表 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="機能一覧表" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -213,6 +215,265 @@
     <t>アプリケーション管理</t>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者側が任意の画像を登録する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証実施</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋データ照合</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋データ照合成功時、画像を表示する画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが指紋認証アプリを起動</t>
+    <rPh sb="5" eb="7">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー側が指紋認証アプリ起動</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面から"アプリ登録”をタップ</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション選択画面表示</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のアプリをタップ→タップしたアプリを起動アプリとして登録</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したことをダイアログで通知</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証実施</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機器の判別</t>
+    <rPh sb="0" eb="2">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋照合</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証失敗</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋データ照合失敗時、失敗ダイアログを表示</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証成功時、登録したアプリを起動</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証失敗時、失敗ダイアログを表示</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,7 +482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +498,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -470,59 +747,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,20 +844,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -555,8 +853,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -576,8 +874,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,9 +1210,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="20"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="B4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="B5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="B7" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="36"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="B8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="B9" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="B10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="B11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:X13"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:X12"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:X7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:X8"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:X9"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:M33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -893,52 +1628,52 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" thickTop="1">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
@@ -949,116 +1684,116 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" thickTop="1">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
@@ -1069,116 +1804,116 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="3" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="1" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
@@ -1189,138 +1924,138 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.25" thickBot="1">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="3" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="1" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="11" t="s">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
@@ -1331,156 +2066,156 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.25" thickBot="1">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="19" t="s">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
       <c r="T31" s="20"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="21" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="23"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="15"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="13" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="15"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="12"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="15"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="12"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="1" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="13" t="s">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="15"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="12"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="1" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="16" t="s">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="18"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="23"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="s">
@@ -1491,222 +2226,222 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="14.25" thickBot="1">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="33" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="2" t="s">
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickTop="1">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="3" t="s">
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="1" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="1" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="27" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="11" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="11" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="1" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1" t="s">
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="11" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11" t="s">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
@@ -1714,247 +2449,247 @@
       </c>
     </row>
     <row r="49" spans="2:22" ht="14.25" thickBot="1">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="33" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="2" t="s">
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
     </row>
     <row r="50" spans="2:22" ht="14.25" thickTop="1">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26" t="s">
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="3" t="s">
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="1" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="1" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="11" t="s">
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="11" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="11" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="1" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1" t="s">
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
     </row>
     <row r="57" spans="2:22">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="11" t="s">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11" t="s">
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="107">
@@ -2038,12 +2773,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Q17"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H4:M4"/>
@@ -2065,9 +2794,99 @@
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/機能一覧表.xlsx
+++ b/機能一覧表.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="12915" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="機能一覧表 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="機能一覧表" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="機能一覧表 (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="機能一覧表 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="機能一覧表" sheetId="1" r:id="rId3"/>
+    <sheet name="アプリ動作メモ" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="76">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -474,6 +475,307 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋入力</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功結果出力</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器判別</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録している指紋データと照合を行う</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末と指紋認証機器が接続されたことを判別する</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末と指紋認証機器が接続解除されたことを判別する</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android端末に指紋認証が成功した結果を表示する</t>
+    <rPh sb="7" eb="9">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android端末に指紋認証が失敗した結果を表示する</t>
+    <rPh sb="7" eb="9">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋登録</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋選択</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋削除</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション登録</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション選択</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション削除</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋を登録する</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋を選択する</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションを選択する</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋とアプリケーションの紐付けをする</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紐付け</t>
+    <rPh sb="0" eb="1">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションを登録する</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録している指紋を削除する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録しているアプリケーションを削除する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -523,7 +825,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -765,22 +1067,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,51 +1298,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -873,48 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,9 +1637,1331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:49">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="14.25" thickBot="1">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+    </row>
+    <row r="4" spans="1:49" ht="14.25" thickTop="1">
+      <c r="B4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+    </row>
+    <row r="5" spans="1:49">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+    </row>
+    <row r="6" spans="1:49">
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+    </row>
+    <row r="7" spans="1:49">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+    </row>
+    <row r="8" spans="1:49">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+    </row>
+    <row r="9" spans="1:49">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+    </row>
+    <row r="10" spans="1:49">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+    </row>
+    <row r="11" spans="1:49">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+    </row>
+    <row r="12" spans="1:49">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+    </row>
+    <row r="13" spans="1:49">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+    </row>
+    <row r="14" spans="1:49">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+    </row>
+    <row r="15" spans="1:49">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+    </row>
+    <row r="16" spans="1:49">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+    </row>
+    <row r="17" spans="2:49">
+      <c r="B17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+    </row>
+    <row r="18" spans="2:49">
+      <c r="B18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+    </row>
+    <row r="19" spans="2:49">
+      <c r="B19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+    </row>
+    <row r="20" spans="2:49">
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+    </row>
+    <row r="21" spans="2:49">
+      <c r="B21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+    </row>
+    <row r="22" spans="2:49">
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="100">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="Z11:AF11"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R21:Y21"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="R19:Y19"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="AG22:AW22"/>
+    <mergeCell ref="AG21:AW21"/>
+    <mergeCell ref="AG20:AW20"/>
+    <mergeCell ref="AG19:AW19"/>
+    <mergeCell ref="AG18:AW18"/>
+    <mergeCell ref="AG17:AW17"/>
+    <mergeCell ref="AG14:AW14"/>
+    <mergeCell ref="AG15:AW15"/>
+    <mergeCell ref="AG13:AW13"/>
+    <mergeCell ref="AG16:AW16"/>
+    <mergeCell ref="AG6:AW6"/>
+    <mergeCell ref="AG5:AW5"/>
+    <mergeCell ref="AG3:AW3"/>
+    <mergeCell ref="AG4:AW4"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="AG7:AW7"/>
+    <mergeCell ref="Z6:AF6"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="R17:Y17"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="R11:Y11"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="AG8:AW8"/>
+    <mergeCell ref="AG10:AW10"/>
+    <mergeCell ref="AG11:AW11"/>
+    <mergeCell ref="Z8:AF8"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="Z10:AF10"/>
+    <mergeCell ref="R5:Y5"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="R8:Y8"/>
+    <mergeCell ref="R15:Y15"/>
+    <mergeCell ref="R13:Y13"/>
+    <mergeCell ref="AG9:AW9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="AG12:AW12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -1221,346 +2970,346 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:24" ht="14.25" thickBot="1">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="B4" s="18" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.25" thickTop="1">
+      <c r="B4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="10" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="10" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="25"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="10" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="10" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="10" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="12"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="41" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="34" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="36"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="33"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="41" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="10" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="37" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="10" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="41" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="34" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="36"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="33"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="10" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="18" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="10" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="45" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="10" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="12"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1580,17 +3329,17 @@
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="J12:Q12"/>
     <mergeCell ref="R12:X12"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:X9"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:X6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="J7:Q7"/>
     <mergeCell ref="R7:X7"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="J8:Q8"/>
     <mergeCell ref="R8:X8"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:X9"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="R6:X6"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="R3:X3"/>
@@ -1604,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V57"/>
   <sheetViews>
@@ -1628,52 +3377,52 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" thickTop="1">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
@@ -1684,66 +3433,66 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" thickTop="1">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7" t="s">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1752,18 +3501,18 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="8" t="s">
         <v>13</v>
       </c>
@@ -1804,66 +3553,66 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7" t="s">
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1872,18 +3621,18 @@
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="8" t="s">
         <v>13</v>
       </c>
@@ -1924,66 +3673,66 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.25" thickBot="1">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="7" t="s">
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="8" t="s">
         <v>12</v>
       </c>
@@ -1992,18 +3741,18 @@
       <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="8" t="s">
         <v>13</v>
       </c>
@@ -2012,14 +3761,14 @@
       <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="8" t="s">
         <v>17</v>
       </c>
@@ -2036,12 +3785,12 @@
       <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
       <c r="H28" s="8" t="s">
         <v>23</v>
       </c>
@@ -2050,12 +3799,12 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
@@ -2066,114 +3815,114 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.25" thickBot="1">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="18" t="s">
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="20"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="18"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="13" t="s">
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="15"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="25"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="10" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="12"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="11"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="12"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="11"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="8" t="s">
         <v>17</v>
       </c>
@@ -2182,23 +3931,23 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="10" t="s">
+      <c r="N35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="12"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="11"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
       <c r="H36" s="8" t="s">
         <v>23</v>
       </c>
@@ -2207,15 +3956,15 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="23"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="51"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="s">
@@ -2226,78 +3975,78 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="14.25" thickBot="1">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="27" t="s">
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="1" t="s">
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickTop="1">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24" t="s">
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="7" t="s">
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
       <c r="P41" s="8" t="s">
         <v>12</v>
       </c>
@@ -2309,20 +4058,20 @@
       <c r="V41" s="8"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
       <c r="P42" s="8" t="s">
         <v>13</v>
       </c>
@@ -2334,69 +4083,69 @@
       <c r="V42" s="8"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="28" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="17" t="s">
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="17" t="s">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="8" t="s">
         <v>17</v>
       </c>
@@ -2417,31 +4166,31 @@
       <c r="V45" s="8"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="17" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17" t="s">
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
@@ -2449,78 +4198,78 @@
       </c>
     </row>
     <row r="49" spans="2:22" ht="14.25" thickBot="1">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27" t="s">
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="1" t="s">
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
     </row>
     <row r="50" spans="2:22" ht="14.25" thickTop="1">
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="7" t="s">
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
       <c r="P51" s="8" t="s">
         <v>12</v>
       </c>
@@ -2532,20 +4281,20 @@
       <c r="V51" s="8"/>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
       <c r="P52" s="8" t="s">
         <v>13</v>
       </c>
@@ -2557,94 +4306,94 @@
       <c r="V52" s="8"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25" t="s">
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="17" t="s">
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="17" t="s">
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="17" t="s">
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
       <c r="I56" s="8" t="s">
         <v>17</v>
       </c>
@@ -2665,31 +4414,31 @@
       <c r="V56" s="8"/>
     </row>
     <row r="57" spans="2:22">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="17" t="s">
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17" t="s">
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="107">
@@ -2761,6 +4510,9 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H25:M25"/>
     <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="N20:Q20"/>
@@ -2773,6 +4525,12 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Q17"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H4:M4"/>
@@ -2791,15 +4549,6 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2807,7 +4556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A15"/>
   <sheetViews>

--- a/機能一覧表.xlsx
+++ b/機能一覧表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -617,28 +617,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>セイコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Android端末に指紋認証が失敗した結果を表示する</t>
-    <rPh sb="7" eb="9">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シッパイ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>ケッカ</t>
@@ -1169,6 +1147,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1178,42 +1168,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1274,20 +1252,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1637,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW22"/>
+  <dimension ref="A1:AW19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1649,26 +1627,26 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="14.25" thickBot="1">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
       <c r="R3" s="26" t="s">
         <v>6</v>
       </c>
@@ -1769,7 +1747,7 @@
       <c r="AW4" s="20"/>
     </row>
     <row r="5" spans="1:49">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="32"/>
@@ -1779,114 +1757,114 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="9" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="8" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8" t="s">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
     </row>
     <row r="6" spans="1:49">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="16" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="16" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="8" t="s">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8" t="s">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
     </row>
     <row r="7" spans="1:49">
       <c r="B7" s="1" t="s">
@@ -1899,54 +1877,54 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="4" t="s">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
     </row>
     <row r="8" spans="1:49">
       <c r="B8" s="1" t="s">
@@ -1959,54 +1937,54 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="16" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
     </row>
     <row r="9" spans="1:49">
       <c r="B9" s="1" t="s">
@@ -2019,54 +1997,54 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="4" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
     </row>
     <row r="10" spans="1:49">
       <c r="B10" s="1" t="s">
@@ -2079,54 +2057,54 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="16" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
     </row>
     <row r="11" spans="1:49">
       <c r="B11" s="1" t="s">
@@ -2139,54 +2117,54 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="12" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
     </row>
     <row r="12" spans="1:49">
       <c r="B12" s="1" t="s">
@@ -2199,54 +2177,54 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8" t="s">
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
     </row>
     <row r="13" spans="1:49">
       <c r="B13" s="1" t="s">
@@ -2269,44 +2247,44 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="31"/>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
     </row>
     <row r="14" spans="1:49">
       <c r="B14" s="1" t="s">
@@ -2329,44 +2307,44 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
     </row>
     <row r="15" spans="1:49">
       <c r="B15" s="1" t="s">
@@ -2389,44 +2367,44 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="16" t="s">
+      <c r="R15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
     </row>
     <row r="16" spans="1:49">
       <c r="B16" s="1" t="s">
@@ -2449,127 +2427,127 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
     </row>
     <row r="17" spans="2:49">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="16" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="16" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="8" t="s">
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8" t="s">
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
     </row>
     <row r="18" spans="2:49">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="12" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="12" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="S18" s="21"/>
@@ -2579,283 +2557,107 @@
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="22"/>
-      <c r="Z18" s="8" t="s">
+      <c r="Z18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8" t="s">
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="8"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="8"/>
-      <c r="AT18" s="8"/>
-      <c r="AU18" s="8"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="8"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
     </row>
     <row r="19" spans="2:49">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="12" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="4" t="s">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="8" t="s">
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8" t="s">
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="8"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="8"/>
-    </row>
-    <row r="20" spans="2:49">
-      <c r="B20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="8"/>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="8"/>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="8"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="8"/>
-    </row>
-    <row r="21" spans="2:49">
-      <c r="B21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-    </row>
-    <row r="22" spans="2:49">
-      <c r="B22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="85">
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="J15:Q15"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="J8:Q8"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
     <mergeCell ref="R4:Y4"/>
     <mergeCell ref="R3:Y3"/>
     <mergeCell ref="R6:Y6"/>
@@ -2871,63 +2673,45 @@
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="B19:I19"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R20:Y20"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="Z11:AF11"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R21:Y21"/>
-    <mergeCell ref="R22:Y22"/>
     <mergeCell ref="R19:Y19"/>
     <mergeCell ref="Z14:AF14"/>
     <mergeCell ref="Z15:AF15"/>
     <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
     <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="R17:Y17"/>
     <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="Z20:AF20"/>
-    <mergeCell ref="AG22:AW22"/>
-    <mergeCell ref="AG21:AW21"/>
-    <mergeCell ref="AG20:AW20"/>
     <mergeCell ref="AG19:AW19"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="Z11:AF11"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="Z3:AF3"/>
     <mergeCell ref="AG18:AW18"/>
     <mergeCell ref="AG17:AW17"/>
     <mergeCell ref="AG14:AW14"/>
     <mergeCell ref="AG15:AW15"/>
     <mergeCell ref="AG13:AW13"/>
     <mergeCell ref="AG16:AW16"/>
+    <mergeCell ref="AG12:AW12"/>
     <mergeCell ref="AG6:AW6"/>
     <mergeCell ref="AG5:AW5"/>
     <mergeCell ref="AG3:AW3"/>
     <mergeCell ref="AG4:AW4"/>
-    <mergeCell ref="Z7:AF7"/>
     <mergeCell ref="AG7:AW7"/>
-    <mergeCell ref="Z6:AF6"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="R17:Y17"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="R11:Y11"/>
-    <mergeCell ref="R16:Y16"/>
     <mergeCell ref="AG8:AW8"/>
     <mergeCell ref="AG10:AW10"/>
     <mergeCell ref="AG11:AW11"/>
     <mergeCell ref="Z8:AF8"/>
+    <mergeCell ref="AG9:AW9"/>
     <mergeCell ref="Z17:AF17"/>
     <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="R5:Y5"/>
@@ -2935,21 +2719,20 @@
     <mergeCell ref="R8:Y8"/>
     <mergeCell ref="R15:Y15"/>
     <mergeCell ref="R13:Y13"/>
-    <mergeCell ref="AG9:AW9"/>
     <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="R11:Y11"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="Z6:AF6"/>
+    <mergeCell ref="Z5:AF5"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="J7:Q7"/>
     <mergeCell ref="J9:Q9"/>
     <mergeCell ref="J11:Q11"/>
     <mergeCell ref="R7:Y7"/>
     <mergeCell ref="R9:Y9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="AG12:AW12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2971,35 +2754,35 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" thickBot="1">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="18"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="17"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" thickTop="1">
       <c r="B4" s="34" t="s">
@@ -3033,7 +2816,7 @@
       <c r="X4" s="25"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="32"/>
@@ -3043,56 +2826,56 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="9" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="16" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="9" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24">
       <c r="B7" s="1" t="s">
@@ -3146,15 +2929,15 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24">
       <c r="B9" s="1" t="s">
@@ -3177,15 +2960,15 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="31"/>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24">
       <c r="B10" s="1" t="s">
@@ -3239,77 +3022,77 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="16" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="9" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="9" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="11"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3377,52 +3160,52 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39" t="s">
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" thickTop="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
@@ -3433,72 +3216,72 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" thickTop="1">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="41" t="s">
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="8" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="44"/>
@@ -3507,42 +3290,42 @@
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
       <c r="G11" s="46"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="8" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
@@ -3553,72 +3336,72 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41" t="s">
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="8" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:20">
       <c r="B19" s="44"/>
@@ -3627,42 +3410,42 @@
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="8" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
@@ -3673,72 +3456,72 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.25" thickBot="1">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39" t="s">
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="41" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="8" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:20">
       <c r="B26" s="44"/>
@@ -3747,42 +3530,42 @@
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="8" t="s">
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="8" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:20">
       <c r="B28" s="47"/>
@@ -3791,14 +3574,14 @@
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="48" t="s">
         <v>24</v>
       </c>
@@ -3815,49 +3598,49 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.25" thickBot="1">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="16" t="s">
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="18"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="17"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" thickTop="1">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="23" t="s">
         <v>11</v>
       </c>
@@ -3869,27 +3652,27 @@
       <c r="T32" s="25"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="9" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="11"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="14"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="44"/>
@@ -3898,48 +3681,48 @@
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="9" t="s">
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="11"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="14"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="8" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="9" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="11"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="14"/>
     </row>
     <row r="36" spans="1:22">
       <c r="B36" s="47"/>
@@ -3948,14 +3731,14 @@
       <c r="E36" s="47"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="49" t="s">
         <v>27</v>
       </c>
@@ -3993,15 +3776,15 @@
       <c r="M39" s="55"/>
       <c r="N39" s="55"/>
       <c r="O39" s="55"/>
-      <c r="P39" s="39" t="s">
+      <c r="P39" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickTop="1">
       <c r="B40" s="52" t="s">
@@ -4022,15 +3805,15 @@
       <c r="M40" s="52"/>
       <c r="N40" s="52"/>
       <c r="O40" s="52"/>
-      <c r="P40" s="41" t="s">
+      <c r="P40" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" s="53"/>
@@ -4047,15 +3830,15 @@
       <c r="M41" s="53"/>
       <c r="N41" s="53"/>
       <c r="O41" s="53"/>
-      <c r="P41" s="8" t="s">
+      <c r="P41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" spans="1:22">
       <c r="B42" s="53"/>
@@ -4072,15 +3855,15 @@
       <c r="M42" s="53"/>
       <c r="N42" s="53"/>
       <c r="O42" s="53"/>
-      <c r="P42" s="8" t="s">
+      <c r="P42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" spans="1:22">
       <c r="B43" s="53" t="s">
@@ -4146,24 +3929,24 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8" t="s">
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="53"/>
@@ -4216,15 +3999,15 @@
       <c r="M49" s="55"/>
       <c r="N49" s="55"/>
       <c r="O49" s="55"/>
-      <c r="P49" s="39" t="s">
+      <c r="P49" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
     </row>
     <row r="50" spans="2:22" ht="14.25" thickTop="1">
       <c r="B50" s="52" t="s">
@@ -4245,15 +4028,15 @@
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
       <c r="O50" s="52"/>
-      <c r="P50" s="41" t="s">
+      <c r="P50" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="53"/>
@@ -4270,15 +4053,15 @@
       <c r="M51" s="53"/>
       <c r="N51" s="53"/>
       <c r="O51" s="53"/>
-      <c r="P51" s="8" t="s">
+      <c r="P51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="53"/>
@@ -4295,15 +4078,15 @@
       <c r="M52" s="53"/>
       <c r="N52" s="53"/>
       <c r="O52" s="53"/>
-      <c r="P52" s="8" t="s">
+      <c r="P52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="53" t="s">
@@ -4394,24 +4177,24 @@
       <c r="F56" s="53"/>
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8" t="s">
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="53"/>
@@ -4498,9 +4281,6 @@
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="H31:M31"/>
     <mergeCell ref="N31:T31"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:Q26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H27:M27"/>
     <mergeCell ref="N27:Q27"/>
@@ -4510,9 +4290,15 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H25:M25"/>
     <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:Q26"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="N20:Q20"/>
@@ -4525,12 +4311,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Q17"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H4:M4"/>
@@ -4549,6 +4329,9 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/機能一覧表.xlsx
+++ b/機能一覧表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -67,26 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指紋管理</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>認証成功</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アプリケーション管理</t>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
@@ -108,26 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機器の判別</t>
-    <rPh sb="0" eb="2">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指紋照合</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クローズ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -139,58 +99,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指紋入力</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功結果出力</t>
-    <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指紋認証機器判別</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指紋を入力する</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,58 +118,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Android端末に指紋認証が成功した結果を表示する</t>
-    <rPh sb="7" eb="9">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指紋登録</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指紋選択</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指紋削除</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -284,26 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指紋を登録する</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指紋を選択する</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アプリケーションを選択する</t>
     <rPh sb="9" eb="11">
       <t>センタク</t>
@@ -311,29 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指紋とアプリケーションの紐付けをする</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>紐付け</t>
-    <rPh sb="0" eb="1">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アプリケーションを登録する</t>
     <rPh sb="9" eb="11">
       <t>トウロク</t>
@@ -341,19 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録している指紋を削除する</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録しているアプリケーションを削除する</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -419,21 +222,416 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>端末と指紋認証機器の接続をする</t>
-    <rPh sb="0" eb="2">
-      <t>タンマツ</t>
-    </rPh>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器接続</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器接続解除</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイス管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ管理</t>
     <rPh sb="3" eb="5">
-      <t>シモン</t>
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末と指紋認証機器を接続する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照合</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像取込</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋の画像データを読み込む</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報入力</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報を入力する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報選択</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報削除</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストからユーザー情報を選択する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋画像およびユーザー情報をリストへ登録する</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報をリストから削除する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集対象選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集したい項目を選択する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
     </rPh>
     <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ更新</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストを更新する</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果出力</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証結果を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ニンショウ</t>
     </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
     <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果：画像の表示やアプリケーションの起動</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋読込</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨミコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋保存</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋取込</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器から指紋を読み込む</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>キキ</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器を用いて指紋を取り込む</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
     <rPh sb="10" eb="12">
-      <t>セツゾク</t>
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読込</t>
+    <rPh sb="0" eb="2">
+      <t>ヨミコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取込</t>
+    <rPh sb="0" eb="2">
+      <t>トリコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器へ指紋を保存する</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7byte符号または画像データにして保存</t>
+    <rPh sb="5" eb="7">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集項目：ユーザー情報、指紋、アプリケーション名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -442,7 +640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,32 +656,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -523,17 +711,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -571,7 +748,50 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -583,25 +803,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -610,51 +815,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,17 +1172,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -974,271 +1191,324 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1">
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="9"/>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="9"/>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="10"/>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="9"/>
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" thickTop="1">
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="F23" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="17"/>
+      <c r="C24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C22:C23"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
